--- a/CV Test Results with Graphs.xlsx
+++ b/CV Test Results with Graphs.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nevadaunr-my.sharepoint.com/personal/nalvarez_nevada_unr_edu/Documents/2022 Spring/CS791 - High Performance Computing/Project/cs791/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{021544EA-A753-FF41-9E71-2CC5906398E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9262190D-B965-FD4F-BB2A-C36832718303}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{021544EA-A753-FF41-9E71-2CC5906398E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3FA75F9-A64C-42C8-BCC5-8233DC83EB53}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="5" xr2:uid="{56CEE24B-4399-7343-9CB2-C211084EA975}"/>
+    <workbookView xWindow="28680" yWindow="4860" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{56CEE24B-4399-7343-9CB2-C211084EA975}"/>
   </bookViews>
   <sheets>
     <sheet name="EFI Unprocessed" sheetId="1" r:id="rId1"/>
-    <sheet name="EFI MinMax" sheetId="2" r:id="rId2"/>
-    <sheet name="EFI MMS + Transform" sheetId="3" r:id="rId3"/>
-    <sheet name="EFI Unprocessed + Transform" sheetId="4" r:id="rId4"/>
+    <sheet name="EFI Unprocessed + Transform" sheetId="4" r:id="rId2"/>
+    <sheet name="EFI MinMax" sheetId="2" r:id="rId3"/>
+    <sheet name="EFI MMS + Transform" sheetId="3" r:id="rId4"/>
     <sheet name="1to1 MMS" sheetId="5" r:id="rId5"/>
     <sheet name="1to1 MMS + Transform" sheetId="6" r:id="rId6"/>
+    <sheet name="1to9 MMS" sheetId="9" r:id="rId7"/>
+    <sheet name="1to9 MMS + Transform" sheetId="7" r:id="rId8"/>
+    <sheet name="EC MMS" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -76,6 +79,14 @@
   </si>
   <si>
     <t>No Transform</t>
+  </si>
+  <si>
+    <t>Auto Sklearn 2
+180 seconds</t>
+  </si>
+  <si>
+    <t>Auto Sklearn 2
+30 seconds</t>
   </si>
 </sst>
 </file>
@@ -118,11 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,6 +270,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F29D-424D-92D7-E5FC0EC65BF6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F29D-424D-92D7-E5FC0EC65BF6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -325,19 +387,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.0413107E-2</c:v>
+                    <c:v>2.0082756969283109E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.7192731111111112E-3</c:v>
+                    <c:v>2.3132267725323875E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.3740752888888881E-2</c:v>
+                    <c:v>8.4573011276067131E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.8045903333333342E-2</c:v>
+                    <c:v>7.2637326674540384E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.2101618999999999E-2</c:v>
+                    <c:v>1.5872034064702821E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8347933521949568E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.4245221264138089E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -349,19 +417,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.0413107E-2</c:v>
+                    <c:v>2.0082756969283109E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.7192731111111112E-3</c:v>
+                    <c:v>2.3132267725323875E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.3740752888888881E-2</c:v>
+                    <c:v>8.4573011276067131E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.8045903333333342E-2</c:v>
+                    <c:v>7.2637326674540384E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.2101618999999999E-2</c:v>
+                    <c:v>1.5872034064702821E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8347933521949568E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.4245221264138089E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -416,19 +490,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.97962962955555555</c:v>
+                  <c:v>0.98521810699588441</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98790123466666679</c:v>
+                  <c:v>0.98319341563785945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62563785999999999</c:v>
+                  <c:v>0.76449382716049319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63382716033333331</c:v>
+                  <c:v>0.72312757201646038</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98271604933333334</c:v>
+                  <c:v>0.99884773662551407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98049382716049338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99938271604938245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,7 +782,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MinMaxScaler - All Features</a:t>
+              <a:t>Unprocessed - 7 Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -748,11 +828,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EFI MinMax'!$B$1</c:f>
+              <c:f>'EFI Unprocessed + Transform'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
+                  <c:v>Transform</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -839,48 +919,60 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'EFI MinMax'!$C$2:$C$8</c:f>
+                <c:f>'EFI Unprocessed + Transform'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.132148E-2</c:v>
+                    <c:v>1.422766119305071E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.0090399999999994E-3</c:v>
+                    <c:v>1.3451716859377655E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.517401E-2</c:v>
+                    <c:v>3.5172286101142973E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8125059999999998E-2</c:v>
+                    <c:v>1.424932586694703E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.273094E-2</c:v>
+                    <c:v>1.50003663567038E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.8852889100771751E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.4251925880015738E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'EFI MinMax'!$C$2:$C$8</c:f>
+                <c:f>'EFI Unprocessed + Transform'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.132148E-2</c:v>
+                    <c:v>1.422766119305071E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.0090399999999994E-3</c:v>
+                    <c:v>1.3451716859377655E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.517401E-2</c:v>
+                    <c:v>3.5172286101142973E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8125059999999998E-2</c:v>
+                    <c:v>1.424932586694703E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.273094E-2</c:v>
+                    <c:v>1.50003663567038E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.8852889100771751E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.4251925880015738E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -901,7 +993,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'EFI MinMax'!$A$2:$A$8</c:f>
+              <c:f>'EFI Unprocessed + Transform'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -930,550 +1022,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EFI MinMax'!$B$2:$B$8</c:f>
+              <c:f>'EFI Unprocessed + Transform'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.97975308999999999</c:v>
+                  <c:v>0.91419753086419731</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98753086000000001</c:v>
+                  <c:v>0.93144855967078144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95699588000000002</c:v>
+                  <c:v>0.71995061728395016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97148148000000001</c:v>
+                  <c:v>0.80720164609053435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98172839999999995</c:v>
+                  <c:v>0.92693827160493769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89115226337448528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91814814814814782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27C9-F846-B7D3-788028CAE59F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="94"/>
-        <c:axId val="1491543232"/>
-        <c:axId val="1491544880"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1491543232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1491544880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1491544880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1491543232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Every File Individually</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>MinMaxScaler - 7 Features</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'EFI MMS + Transform'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Transform</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'EFI MMS + Transform'!$C$2:$C$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>1.4278334467009605E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.3586150669383842E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.2244783400984044E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.9051051767433014E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.5016448220969016E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'EFI MMS + Transform'!$C$2:$C$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>1.4278334467009605E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.3586150669383842E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.2244783400984044E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.9051051767433014E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.5016448220969016E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'EFI MMS + Transform'!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gradient Boosting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Linear SVC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Auto Sklearn</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Auto Sklearn 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'EFI MMS + Transform'!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.91534979423868257</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93292181069958802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83794238683127509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85633744855967042</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92818930041152237</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C75-46F2-8308-E614B5B08723}"/>
+              <c16:uniqueId val="{00000000-2BE6-45B6-A04A-872B7B51B82C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1565,48 +1144,60 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'EFI MMS + Transform'!$E$2:$E$6</c:f>
+                <c:f>'EFI Unprocessed + Transform'!$E$2:$E$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.0321832480073841E-2</c:v>
+                    <c:v>1.0250114431904853E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3638570883902922E-3</c:v>
+                    <c:v>8.2966944928564088E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0245687567266205E-2</c:v>
+                    <c:v>8.1435886873857194E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.6329478780988518E-2</c:v>
+                    <c:v>7.3988340434748279E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.3920199238925915E-3</c:v>
+                    <c:v>8.453598072411566E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.1971548384393014E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1275244632832352E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'EFI MMS + Transform'!$E$2:$E$6</c:f>
+                <c:f>'EFI Unprocessed + Transform'!$E$2:$E$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.0321832480073841E-2</c:v>
+                    <c:v>1.0250114431904853E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3638570883902922E-3</c:v>
+                    <c:v>8.2966944928564088E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0245687567266205E-2</c:v>
+                    <c:v>8.1435886873857194E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.6329478780988518E-2</c:v>
+                    <c:v>7.3988340434748279E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.3920199238925915E-3</c:v>
+                    <c:v>8.453598072411566E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.1971548384393014E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1275244632832352E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1627,7 +1218,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'EFI MMS + Transform'!$A$2:$A$8</c:f>
+              <c:f>'EFI Unprocessed + Transform'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1656,31 +1247,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EFI MMS + Transform'!$D$2:$D$8</c:f>
+              <c:f>'EFI Unprocessed + Transform'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.97884773662551394</c:v>
+                  <c:v>0.97846913580246864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98584362139917658</c:v>
+                  <c:v>0.98585185185185109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94695473251028772</c:v>
+                  <c:v>0.46730041152263319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95732510288065797</c:v>
+                  <c:v>0.42211522633744808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98432098765432052</c:v>
+                  <c:v>0.98414814814814755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93925925925925879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98757201646090509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4C75-46F2-8308-E614B5B08723}"/>
+              <c16:uniqueId val="{00000001-2BE6-45B6-A04A-872B7B51B82C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1935,7 +1532,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1978,7 +1575,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Unprocessed - 7 Features</a:t>
+              <a:t>MinMaxScaler - All Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2024,11 +1621,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EFI Unprocessed + Transform'!$B$1</c:f>
+              <c:f>'EFI MinMax'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Transform</c:v>
+                  <c:v>Accuracy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2051,6 +1648,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-DD47-4606-BF9F-43CE2C290463}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DD47-4606-BF9F-43CE2C290463}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2115,48 +1760,60 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'EFI Unprocessed + Transform'!$C$2:$C$6</c:f>
+                <c:f>'EFI MinMax'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.4078815828438665E-2</c:v>
+                    <c:v>2.2941596540221189E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3620107221814651E-2</c:v>
+                    <c:v>2.3004771146978787E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.6384045589715729E-2</c:v>
+                    <c:v>1.9747807159709793E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4478432368021809E-2</c:v>
+                    <c:v>1.9063902879304139E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.3800195598308907E-2</c:v>
+                    <c:v>1.5559982865345767E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8347933521949568E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.4245221264138089E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'EFI Unprocessed + Transform'!$C$2:$C$6</c:f>
+                <c:f>'EFI MinMax'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.4078815828438665E-2</c:v>
+                    <c:v>2.2941596540221189E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3620107221814651E-2</c:v>
+                    <c:v>2.3004771146978787E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.6384045589715729E-2</c:v>
+                    <c:v>1.9747807159709793E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4478432368021809E-2</c:v>
+                    <c:v>1.9063902879304139E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.3800195598308907E-2</c:v>
+                    <c:v>1.5559982865345767E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8347933521949568E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.4245221264138089E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2177,7 +1834,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'EFI Unprocessed + Transform'!$A$2:$A$8</c:f>
+              <c:f>'EFI MinMax'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2206,45 +1863,364 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EFI Unprocessed + Transform'!$B$2:$B$8</c:f>
+              <c:f>'EFI MinMax'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.9137860082304522</c:v>
+                  <c:v>0.98296296296296237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93127572016460847</c:v>
+                  <c:v>0.98327572016460862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71786008230452614</c:v>
+                  <c:v>0.99761316872427963</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80600823045267445</c:v>
+                  <c:v>0.99850205761316835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92691358024691306</c:v>
+                  <c:v>0.9988559670781888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98049382716049338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99938271604938245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BE6-45B6-A04A-872B7B51B82C}"/>
+              <c16:uniqueId val="{00000000-27C9-F846-B7D3-788028CAE59F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="94"/>
+        <c:axId val="1491543232"/>
+        <c:axId val="1491544880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1491543232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491544880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1491544880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491543232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Every File Individually</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MinMaxScaler - 7 Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>No Transform</c:v>
+            <c:strRef>
+              <c:f>'EFI MMS + Transform'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="0">
@@ -2258,6 +2234,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-25FC-4731-ADD3-DD6FAA942EA4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-25FC-4731-ADD3-DD6FAA942EA4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2322,48 +2346,60 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'EFI Unprocessed + Transform'!$E$2:$E$6</c:f>
+                <c:f>'EFI MMS + Transform'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.00183585225922E-2</c:v>
+                    <c:v>1.380035121012701E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3409527231084381E-3</c:v>
+                    <c:v>1.3213893279803034E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.8449649687861556E-2</c:v>
+                    <c:v>3.2244783400984058E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.8751367752944159E-2</c:v>
+                    <c:v>3.0895986061411144E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.3399752926641545E-3</c:v>
+                    <c:v>1.4517408750698894E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.8852889100771751E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.4251925880015738E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'EFI Unprocessed + Transform'!$E$2:$E$6</c:f>
+                <c:f>'EFI MMS + Transform'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>1.00183585225922E-2</c:v>
+                    <c:v>1.380035121012701E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3409527231084381E-3</c:v>
+                    <c:v>1.3213893279803034E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.8449649687861556E-2</c:v>
+                    <c:v>3.2244783400984058E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.8751367752944159E-2</c:v>
+                    <c:v>3.0895986061411144E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.3399752926641545E-3</c:v>
+                    <c:v>1.4517408750698894E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.8852889100771751E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.4251925880015738E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2384,7 +2420,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'EFI Unprocessed + Transform'!$A$2:$A$8</c:f>
+              <c:f>'EFI MMS + Transform'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2413,31 +2449,316 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EFI Unprocessed + Transform'!$D$2:$D$8</c:f>
+              <c:f>'EFI MMS + Transform'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.97831275720164568</c:v>
+                  <c:v>0.91540740740740678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98584362139917636</c:v>
+                  <c:v>0.93289711934156339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44370370370370327</c:v>
+                  <c:v>0.83794238683127509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42827160493827132</c:v>
+                  <c:v>0.85703703703703649</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98399176954732448</c:v>
+                  <c:v>0.9275637860082302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89115226337448528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91814814814814782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2BE6-45B6-A04A-872B7B51B82C}"/>
+              <c16:uniqueId val="{00000000-4C75-46F2-8308-E614B5B08723}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>No Transform</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-25FC-4731-ADD3-DD6FAA942EA4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-25FC-4731-ADD3-DD6FAA942EA4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'EFI MMS + Transform'!$E$2:$E$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.0080609489016099E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.3686948212332527E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0245687567266205E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6992126524916974E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.8403188621903068E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.1971548384393014E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1275244632832352E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'EFI MMS + Transform'!$E$2:$E$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.0080609489016099E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.3686948212332527E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0245687567266205E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6992126524916974E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.8403188621903068E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.1971548384393014E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1275244632832352E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EFI MMS + Transform'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Auto Sklearn 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EFI MMS + Transform'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.97854320987654275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98579423868312688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9469547325102875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95644444444444399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9839012345679008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93925925925925879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98757201646090509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4C75-46F2-8308-E614B5B08723}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2808,6 +3129,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-54BA-45A1-85D2-B83F2E53FE15}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-54BA-45A1-85D2-B83F2E53FE15}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2877,19 +3246,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>0.26621256794251452</c:v>
+                    <c:v>0.24963003596210828</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.25671633921164305</c:v>
+                    <c:v>0.25045067985638619</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.22618944726217827</c:v>
+                    <c:v>0.2261862309199337</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.2104926505162438</c:v>
+                    <c:v>0.21336521660949578</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.17876040966872048</c:v>
+                    <c:v>0.17743902049903454</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.10820892138627498</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.0527529336300396E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2901,19 +3276,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>0.26621256794251452</c:v>
+                    <c:v>0.24963003596210828</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.25671633921164305</c:v>
+                    <c:v>0.25045067985638619</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.22618944726217827</c:v>
+                    <c:v>0.2261862309199337</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.2104926505162438</c:v>
+                    <c:v>0.21336521660949578</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.17876040966872048</c:v>
+                    <c:v>0.17743902049903454</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.10820892138627498</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.0527529336300396E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2968,19 +3349,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.7068261316872424</c:v>
+                  <c:v>0.703666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81712448559670736</c:v>
+                  <c:v>0.82307818930041066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48603909465020517</c:v>
+                  <c:v>0.48604320987654281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61043209876543159</c:v>
+                  <c:v>0.58232407407407372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84638888888888852</c:v>
+                  <c:v>0.84833024691357961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78935185185185142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83579218106995867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,6 +3714,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8AAD-4F4C-85FB-07500965E76C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D440-C142-B0CF-728B80BC266F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3391,48 +3826,66 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1to1 MMS + Transform'!$C$2:$C$6</c:f>
+                <c:f>'1to1 MMS + Transform'!$C$2:$C$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>9.5186937654114512E-2</c:v>
+                    <c:v>0.11137552477147016</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.11170628383451559</c:v>
+                    <c:v>0.11093113143437307</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14772497109767893</c:v>
+                    <c:v>0.14772188739719461</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.15215345548654183</c:v>
+                    <c:v>0.14991999072797185</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>9.7332667468922524E-2</c:v>
+                    <c:v>9.595926431789388E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11720329140640605</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.11511950043676702</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1336420002566053</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1to1 MMS + Transform'!$C$2:$C$6</c:f>
+                <c:f>'1to1 MMS + Transform'!$C$2:$C$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>9.5186937654114512E-2</c:v>
+                    <c:v>0.11137552477147016</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.11170628383451559</c:v>
+                    <c:v>0.11093113143437307</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14772497109767893</c:v>
+                    <c:v>0.14772188739719461</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.15215345548654183</c:v>
+                    <c:v>0.14991999072797185</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>9.7332667468922524E-2</c:v>
+                    <c:v>9.595926431789388E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11720329140640605</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.11511950043676702</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1336420002566053</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3453,9 +3906,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'1to1 MMS + Transform'!$A$2:$A$8</c:f>
+              <c:f>'1to1 MMS + Transform'!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Decision Tree</c:v>
                 </c:pt>
@@ -3475,31 +3928,45 @@
                   <c:v>Auto Sklearn</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Auto Sklearn 2</c:v>
+                  <c:v>Auto Sklearn 2
+180 seconds</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Auto Sklearn 2
+30 seconds</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1to1 MMS + Transform'!$B$2:$B$8</c:f>
+              <c:f>'1to1 MMS + Transform'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.74736625514403232</c:v>
+                  <c:v>0.73483847736625463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7156944444444443</c:v>
+                  <c:v>0.71486316872427991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65138888888888835</c:v>
+                  <c:v>0.65138683127571995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65742798353909404</c:v>
+                  <c:v>0.65925308641975267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75860082304526699</c:v>
+                  <c:v>0.76258127572016454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7378034979423862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73325617283950584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70725308641975282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3534,6 +4001,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8AAD-4F4C-85FB-07500965E76C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D440-C142-B0CF-728B80BC266F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3598,48 +4119,60 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1to1 MMS + Transform'!$E$2:$E$6</c:f>
+                <c:f>'1to1 MMS + Transform'!$E$2:$E$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>0.24879312643040188</c:v>
+                    <c:v>0.22856232552601213</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.19759067214162415</c:v>
+                    <c:v>0.2013118116538479</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.24580445201986892</c:v>
+                    <c:v>0.24580554537397836</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.21058020103335784</c:v>
+                    <c:v>0.21352443964859302</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.18045505861567293</c:v>
+                    <c:v>0.18376113209540867</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.18907877524410602</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18738983897446448</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1to1 MMS + Transform'!$E$2:$E$6</c:f>
+                <c:f>'1to1 MMS + Transform'!$E$2:$E$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="8"/>
                   <c:pt idx="0">
-                    <c:v>0.24879312643040188</c:v>
+                    <c:v>0.22856232552601213</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.19759067214162415</c:v>
+                    <c:v>0.2013118116538479</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.24580445201986892</c:v>
+                    <c:v>0.24580554537397836</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.21058020103335784</c:v>
+                    <c:v>0.21352443964859302</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.18045505861567293</c:v>
+                    <c:v>0.18376113209540867</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.18907877524410602</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18738983897446448</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3660,9 +4193,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'1to1 MMS + Transform'!$A$2:$A$8</c:f>
+              <c:f>'1to1 MMS + Transform'!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Decision Tree</c:v>
                 </c:pt>
@@ -3682,31 +4215,42 @@
                   <c:v>Auto Sklearn</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Auto Sklearn 2</c:v>
+                  <c:v>Auto Sklearn 2
+180 seconds</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Auto Sklearn 2
+30 seconds</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1to1 MMS + Transform'!$D$2:$D$8</c:f>
+              <c:f>'1to1 MMS + Transform'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.54227366255143972</c:v>
+                  <c:v>0.58293724279835313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64608539094650164</c:v>
+                  <c:v>0.64482716049382716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48127057613168667</c:v>
+                  <c:v>0.4812757201646079</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56072016460905294</c:v>
+                  <c:v>0.56361008230452603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68078189300411485</c:v>
+                  <c:v>0.67957613168724273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64374485596707776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66723765432098758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,6 +4258,2415 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C4CA-4D7F-ADA2-A69F9230F34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="94"/>
+        <c:axId val="1491543232"/>
+        <c:axId val="1491544880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1491543232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491544880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1491544880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491543232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>One to Many </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MinMaxScaler - All Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1to9 MMS'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BF48-4D49-9D37-A47930879FF4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BF48-4D49-9D37-A47930879FF4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'1to9 MMS'!$C$2:$C$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.1137703481584893</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.0172318024904946E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10766588718448433</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1137916020938733</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.450518006162322E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.10820892138627498</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.0527529336300396E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'1to9 MMS'!$C$2:$C$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.1137703481584893</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.0172318024904946E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10766588718448433</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1137916020938733</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.450518006162322E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.10820892138627498</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.0527529336300396E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1to9 MMS'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Auto Sklearn 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1to9 MMS'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.68654629629629571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82559773662551394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48604320987654293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59685905349794222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84477469135802408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78935185185185142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83579218106995867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BF48-4D49-9D37-A47930879FF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="94"/>
+        <c:axId val="1491543232"/>
+        <c:axId val="1491544880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1491543232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491544880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1491544880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491543232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>One to Many </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MinMaxScaler - 7 Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1to9 MMS + Transform'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-02F0-554B-A635-35C0CED7DFD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-02F0-554B-A635-35C0CED7DFD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'1to9 MMS + Transform'!$C$2:$C$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>4.0832610311007253E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7933858507708776E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.751281010305007E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3284851408713287E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.52639597856766E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11720329140640605</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.11511950043676702</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1336420002566053</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'1to9 MMS + Transform'!$C$2:$C$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>4.0832610311007253E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7933858507708776E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.751281010305007E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3284851408713287E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.52639597856766E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11720329140640605</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.11511950043676702</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1336420002566053</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1to9 MMS + Transform'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Auto Sklearn 2
+180 seconds</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Auto Sklearn 2
+30 seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1to9 MMS + Transform'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.72169650205761271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71541975308641936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65138580246913536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65874588477366192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76200925925925878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7378034979423862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73325617283950584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70725308641975282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-02F0-554B-A635-35C0CED7DFD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>No Transform</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-02F0-554B-A635-35C0CED7DFD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-02F0-554B-A635-35C0CED7DFD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'1to9 MMS + Transform'!$E$2:$E$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>9.1592120598563087E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.5461879578462001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0957949277721051E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.3486024631807964E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.1031793624409343E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.18907877524410602</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18738983897446448</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'1to9 MMS + Transform'!$E$2:$E$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>9.1592120598563087E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.5461879578462001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0957949277721051E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.3486024631807964E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.1031793624409343E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.18907877524410602</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18738983897446448</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1to9 MMS + Transform'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Auto Sklearn 2
+180 seconds</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Auto Sklearn 2
+30 seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1to9 MMS + Transform'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.57545576131687193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64962962962962945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48127469135802431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55886419753086369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68075308641975263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64374485596707776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66723765432098758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-02F0-554B-A635-35C0CED7DFD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="94"/>
+        <c:axId val="1491543232"/>
+        <c:axId val="1491544880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1491543232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491544880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1491544880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491543232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expanse/Chameleon Transfer - MinMaxScaler</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - 7 Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EC MMS'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9E64-7D48-91BC-3F5D1453B03C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9E64-7D48-91BC-3F5D1453B03C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'EC MMS'!$C$2:$C$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>8.4976961748339297E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2366309698198526E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.5606054368558977E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3893224576926764E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.1517816059811216E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11720329140640605</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.11511950043676702</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1336420002566053</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'EC MMS'!$C$2:$C$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>8.4976961748339297E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2366309698198526E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.5606054368558977E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3893224576926764E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.1517816059811216E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11720329140640605</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.11511950043676702</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1336420002566053</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EC MMS'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Auto Sklearn 2
+180 seconds</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Auto Sklearn 2
+30 seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EC MMS'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.74201100544783327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77736844921987502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78291246414995896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78710674735498698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80903523938907385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7378034979423862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73325617283950584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70725308641975282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E64-7D48-91BC-3F5D1453B03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>No Transform</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-9E64-7D48-91BC-3F5D1453B03C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-9E64-7D48-91BC-3F5D1453B03C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'EC MMS'!$E$2:$E$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.13300821363504334</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1106888098216032E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10803383969371397</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.1477864604541979E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11396321579117864</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.18907877524410602</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18738983897446448</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'EC MMS'!$E$2:$E$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.13300821363504334</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1106888098216032E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10803383969371397</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.1477864604541979E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11396321579117864</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.18907877524410602</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18738983897446448</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EC MMS'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Auto Sklearn 2
+180 seconds</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Auto Sklearn 2
+30 seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EC MMS'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.54563365032316435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52201683751183536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27470050636038001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28987651119070101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48662630878377405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64374485596707776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66723765432098758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9E64-7D48-91BC-3F5D1453B03C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4208,6 +7161,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -6734,6 +9807,1521 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7283,23 +11871,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F43B2E-C0A0-D542-AAEB-E6B30A494246}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DDED03-BBBF-4AAD-83D1-B79C140CD0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7326,23 +11914,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650F762C-04C8-4E6C-9D24-E46DB60391CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F43B2E-C0A0-D542-AAEB-E6B30A494246}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7385,7 +11973,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DDED03-BBBF-4AAD-83D1-B79C140CD0C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650F762C-04C8-4E6C-9D24-E46DB60391CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7464,7 +12052,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>377825</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7472,6 +12060,135 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18BA53D-B22C-48E9-9C91-A0AC051DF85E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35E9BEF-7C1D-4F61-B8FC-61EDDEF5A96E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11390536-D7BE-B841-AB89-EFD6CF44E9D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D903E93F-5ADC-A94F-A1CF-BE297C51F9C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7794,16 +12511,16 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7814,69 +12531,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>0.97962962955555555</v>
+        <v>0.98521810699588441</v>
       </c>
       <c r="C2">
-        <v>1.0413107E-2</v>
+        <v>2.0082756969283109E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>0.98790123466666679</v>
+        <v>0.98319341563785945</v>
       </c>
       <c r="C3">
-        <v>8.7192731111111112E-3</v>
+        <v>2.3132267725323875E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>0.62563785999999999</v>
+        <v>0.76449382716049319</v>
       </c>
       <c r="C4">
-        <v>8.3740752888888881E-2</v>
+        <v>8.4573011276067131E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.63382716033333331</v>
+        <v>0.72312757201646038</v>
       </c>
       <c r="C5">
-        <v>8.8045903333333342E-2</v>
+        <v>7.2637326674540384E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.98271604933333334</v>
+        <v>0.99884773662551407</v>
       </c>
       <c r="C6">
-        <v>1.2101618999999999E-2</v>
+        <v>1.5872034064702821E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.98049382716049338</v>
+      </c>
+      <c r="C7">
+        <v>3.8347933521949568E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.99938271604938245</v>
+      </c>
+      <c r="C8">
+        <v>8.4245221264138089E-4</v>
       </c>
     </row>
   </sheetData>
@@ -7886,93 +12615,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A69FDC-3718-BD45-AC60-F457623B1FF2}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EDDCE1-6D78-45B1-9F99-1BFF49867431}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="4" max="4" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>0.97975308999999999</v>
+        <v>0.91419753086419731</v>
       </c>
       <c r="C2" s="2">
-        <v>1.132148E-2</v>
+        <v>1.422766119305071E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.97846913580246864</v>
+      </c>
+      <c r="E2">
+        <v>1.0250114431904853E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>0.98753086000000001</v>
+        <v>0.93144855967078144</v>
       </c>
       <c r="C3" s="2">
-        <v>9.0090399999999994E-3</v>
+        <v>1.3451716859377655E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.98585185185185109</v>
+      </c>
+      <c r="E3">
+        <v>8.2966944928564088E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0.95699588000000002</v>
+        <v>0.71995061728395016</v>
       </c>
       <c r="C4" s="2">
-        <v>2.517401E-2</v>
+        <v>3.5172286101142973E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.46730041152263319</v>
+      </c>
+      <c r="E4">
+        <v>8.1435886873857194E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.97148148000000001</v>
+        <v>0.80720164609053435</v>
       </c>
       <c r="C5" s="2">
-        <v>1.8125059999999998E-2</v>
+        <v>1.424932586694703E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.42211522633744808</v>
+      </c>
+      <c r="E5">
+        <v>7.3988340434748279E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0.98172839999999995</v>
+        <v>0.92693827160493769</v>
       </c>
       <c r="C6" s="2">
-        <v>1.273094E-2</v>
+        <v>1.50003663567038E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98414814814814755</v>
+      </c>
+      <c r="E6">
+        <v>8.453598072411566E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.89115226337448528</v>
+      </c>
+      <c r="C7">
+        <v>5.8852889100771751E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.93925925925925879</v>
+      </c>
+      <c r="E7">
+        <v>7.1971548384393014E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.91814814814814782</v>
+      </c>
+      <c r="C8">
+        <v>4.4251925880015738E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98757201646090509</v>
+      </c>
+      <c r="E8">
+        <v>7.1275244632832352E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7982,130 +12772,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2185EBE-B8E3-49FB-8489-38973129709D}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A69FDC-3718-BD45-AC60-F457623B1FF2}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-    <col min="4" max="4" width="11" style="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>0.91534979423868257</v>
+        <v>0.98296296296296237</v>
       </c>
       <c r="C2" s="2">
-        <v>1.4278334467009605E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.97884773662551394</v>
-      </c>
-      <c r="E2">
-        <v>1.0321832480073841E-2</v>
+        <v>2.2941596540221189E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>0.93292181069958802</v>
+        <v>0.98327572016460862</v>
       </c>
       <c r="C3" s="2">
-        <v>1.3586150669383842E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.98584362139917658</v>
-      </c>
-      <c r="E3">
-        <v>8.3638570883902922E-3</v>
+        <v>2.3004771146978787E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0.83794238683127509</v>
+        <v>0.99761316872427963</v>
       </c>
       <c r="C4" s="2">
-        <v>3.2244783400984044E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.94695473251028772</v>
-      </c>
-      <c r="E4">
-        <v>2.0245687567266205E-2</v>
+        <v>1.9747807159709793E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.85633744855967042</v>
+        <v>0.99850205761316835</v>
       </c>
       <c r="C5" s="2">
-        <v>2.9051051767433014E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.95732510288065797</v>
-      </c>
-      <c r="E5">
-        <v>1.6329478780988518E-2</v>
+        <v>1.9063902879304139E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0.92818930041152237</v>
+        <v>0.9988559670781888</v>
       </c>
       <c r="C6" s="2">
-        <v>1.5016448220969016E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.98432098765432052</v>
-      </c>
-      <c r="E6">
-        <v>8.3920199238925915E-3</v>
+        <v>1.5559982865345767E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.98049382716049338</v>
+      </c>
+      <c r="C7">
+        <v>3.8347933521949568E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.99938271604938245</v>
+      </c>
+      <c r="C8">
+        <v>8.4245221264138089E-4</v>
       </c>
     </row>
   </sheetData>
@@ -8115,21 +12880,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EDDCE1-6D78-45B1-9F99-1BFF49867431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2185EBE-B8E3-49FB-8489-38973129709D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="11" style="1"/>
     <col min="4" max="4" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8146,99 +12911,123 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>0.9137860082304522</v>
+        <v>0.91540740740740678</v>
       </c>
       <c r="C2" s="2">
-        <v>1.4078815828438665E-2</v>
+        <v>1.380035121012701E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.97831275720164568</v>
+        <v>0.97854320987654275</v>
       </c>
       <c r="E2">
-        <v>1.00183585225922E-2</v>
+        <v>1.0080609489016099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>0.93127572016460847</v>
+        <v>0.93289711934156339</v>
       </c>
       <c r="C3" s="2">
-        <v>1.3620107221814651E-2</v>
+        <v>1.3213893279803034E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.98584362139917636</v>
+        <v>0.98579423868312688</v>
       </c>
       <c r="E3">
-        <v>8.3409527231084381E-3</v>
+        <v>8.3686948212332527E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0.71786008230452614</v>
+        <v>0.83794238683127509</v>
       </c>
       <c r="C4" s="2">
-        <v>2.6384045589715729E-2</v>
+        <v>3.2244783400984058E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.44370370370370327</v>
+        <v>0.9469547325102875</v>
       </c>
       <c r="E4">
-        <v>7.8449649687861556E-2</v>
+        <v>2.0245687567266205E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.80600823045267445</v>
+        <v>0.85703703703703649</v>
       </c>
       <c r="C5" s="2">
-        <v>1.4478432368021809E-2</v>
+        <v>3.0895986061411144E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.42827160493827132</v>
+        <v>0.95644444444444399</v>
       </c>
       <c r="E5">
-        <v>6.8751367752944159E-2</v>
+        <v>1.6992126524916974E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0.92691358024691306</v>
+        <v>0.9275637860082302</v>
       </c>
       <c r="C6" s="2">
-        <v>1.3800195598308907E-2</v>
+        <v>1.4517408750698894E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.98399176954732448</v>
+        <v>0.9839012345679008</v>
       </c>
       <c r="E6">
-        <v>8.3399752926641545E-3</v>
+        <v>8.8403188621903068E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.89115226337448528</v>
+      </c>
+      <c r="C7">
+        <v>5.8852889100771751E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.93925925925925879</v>
+      </c>
+      <c r="E7">
+        <v>7.1971548384393014E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.91814814814814782</v>
+      </c>
+      <c r="C8">
+        <v>4.4251925880015738E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98757201646090509</v>
+      </c>
+      <c r="E8">
+        <v>7.1275244632832352E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8252,16 +13041,16 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8272,69 +13061,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>0.7068261316872424</v>
+        <v>0.703666666666666</v>
       </c>
       <c r="C2" s="2">
-        <v>0.26621256794251452</v>
+        <v>0.24963003596210828</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>0.81712448559670736</v>
+        <v>0.82307818930041066</v>
       </c>
       <c r="C3" s="2">
-        <v>0.25671633921164305</v>
+        <v>0.25045067985638619</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0.48603909465020517</v>
+        <v>0.48604320987654281</v>
       </c>
       <c r="C4" s="2">
-        <v>0.22618944726217827</v>
+        <v>0.2261862309199337</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.61043209876543159</v>
+        <v>0.58232407407407372</v>
       </c>
       <c r="C5" s="2">
-        <v>0.2104926505162438</v>
+        <v>0.21336521660949578</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0.84638888888888852</v>
+        <v>0.84833024691357961</v>
       </c>
       <c r="C6" s="2">
-        <v>0.17876040966872048</v>
+        <v>0.17743902049903454</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.78935185185185142</v>
+      </c>
+      <c r="C7">
+        <v>0.10820892138627498</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.83579218106995867</v>
+      </c>
+      <c r="C8">
+        <v>7.0527529336300396E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8345,20 +13146,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F56E7F-4A5A-4BFB-865B-F0334D2CDBCA}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="11" style="1"/>
     <col min="4" max="4" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8375,99 +13176,578 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>0.74736625514403232</v>
+        <v>0.73483847736625463</v>
       </c>
       <c r="C2" s="2">
-        <v>9.5186937654114512E-2</v>
+        <v>0.11137552477147016</v>
       </c>
       <c r="D2" s="1">
-        <v>0.54227366255143972</v>
+        <v>0.58293724279835313</v>
       </c>
       <c r="E2">
-        <v>0.24879312643040188</v>
+        <v>0.22856232552601213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>0.7156944444444443</v>
+        <v>0.71486316872427991</v>
       </c>
       <c r="C3" s="2">
-        <v>0.11170628383451559</v>
+        <v>0.11093113143437307</v>
       </c>
       <c r="D3" s="1">
-        <v>0.64608539094650164</v>
+        <v>0.64482716049382716</v>
       </c>
       <c r="E3">
-        <v>0.19759067214162415</v>
+        <v>0.2013118116538479</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0.65138888888888835</v>
+        <v>0.65138683127571995</v>
       </c>
       <c r="C4" s="2">
-        <v>0.14772497109767893</v>
+        <v>0.14772188739719461</v>
       </c>
       <c r="D4" s="1">
-        <v>0.48127057613168667</v>
+        <v>0.4812757201646079</v>
       </c>
       <c r="E4">
-        <v>0.24580445201986892</v>
+        <v>0.24580554537397836</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.65742798353909404</v>
+        <v>0.65925308641975267</v>
       </c>
       <c r="C5" s="2">
-        <v>0.15215345548654183</v>
+        <v>0.14991999072797185</v>
       </c>
       <c r="D5" s="1">
-        <v>0.56072016460905294</v>
+        <v>0.56361008230452603</v>
       </c>
       <c r="E5">
-        <v>0.21058020103335784</v>
+        <v>0.21352443964859302</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0.75860082304526699</v>
+        <v>0.76258127572016454</v>
       </c>
       <c r="C6" s="2">
-        <v>9.7332667468922524E-2</v>
+        <v>9.595926431789388E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.68078189300411485</v>
+        <v>0.67957613168724273</v>
       </c>
       <c r="E6">
-        <v>0.18045505861567293</v>
+        <v>0.18376113209540867</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.7378034979423862</v>
+      </c>
+      <c r="C7">
+        <v>0.11720329140640605</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.64374485596707776</v>
+      </c>
+      <c r="E7">
+        <v>0.18907877524410602</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.73325617283950584</v>
+      </c>
+      <c r="C8">
+        <v>0.11511950043676702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.70725308641975282</v>
+      </c>
+      <c r="C9">
+        <v>0.1336420002566053</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.66723765432098758</v>
+      </c>
+      <c r="E9">
+        <v>0.18738983897446448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3C4C50-ACF6-4137-A0A6-F3A3BF14AD85}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.68654629629629571</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1137703481584893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.82559773662551394</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.0172318024904946E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.48604320987654293</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.10766588718448433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.59685905349794222</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1137916020938733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.84477469135802408</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.450518006162322E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.78935185185185142</v>
+      </c>
+      <c r="C7">
+        <v>0.10820892138627498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.83579218106995867</v>
+      </c>
+      <c r="C8">
+        <v>7.0527529336300396E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADACA25-E1F8-5849-8FBD-555F25E42E50}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="4" max="4" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.72169650205761271</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.0832610311007253E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.57545576131687193</v>
+      </c>
+      <c r="E2">
+        <v>9.1592120598563087E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.71541975308641936</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.7933858507708776E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.64962962962962945</v>
+      </c>
+      <c r="E3">
+        <v>6.5461879578462001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.65138580246913536</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.751281010305007E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.48127469135802431</v>
+      </c>
+      <c r="E4">
+        <v>9.0957949277721051E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.65874588477366192</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.3284851408713287E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.55886419753086369</v>
+      </c>
+      <c r="E5">
+        <v>7.3486024631807964E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.76200925925925878</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.52639597856766E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.68075308641975263</v>
+      </c>
+      <c r="E6">
+        <v>5.1031793624409343E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7378034979423862</v>
+      </c>
+      <c r="C7">
+        <v>0.11720329140640605</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.64374485596707776</v>
+      </c>
+      <c r="E7">
+        <v>0.18907877524410602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.73325617283950584</v>
+      </c>
+      <c r="C8">
+        <v>0.11511950043676702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.70725308641975282</v>
+      </c>
+      <c r="C9">
+        <v>0.1336420002566053</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.66723765432098758</v>
+      </c>
+      <c r="E9">
+        <v>0.18738983897446448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC1BCE0-29EC-3D42-B875-E87A70CA5B15}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="4" max="4" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.74201100544783327</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.4976961748339297E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.54563365032316435</v>
+      </c>
+      <c r="E2">
+        <v>0.13300821363504334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.77736844921987502</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.2366309698198526E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.52201683751183536</v>
+      </c>
+      <c r="E3">
+        <v>3.1106888098216032E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.78291246414995896</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.5606054368558977E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.27470050636038001</v>
+      </c>
+      <c r="E4">
+        <v>0.10803383969371397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.78710674735498698</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.3893224576926764E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.28987651119070101</v>
+      </c>
+      <c r="E5">
+        <v>6.1477864604541979E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.80903523938907385</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.1517816059811216E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.48662630878377405</v>
+      </c>
+      <c r="E6">
+        <v>0.11396321579117864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7378034979423862</v>
+      </c>
+      <c r="C7">
+        <v>0.11720329140640605</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.64374485596707776</v>
+      </c>
+      <c r="E7">
+        <v>0.18907877524410602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.73325617283950584</v>
+      </c>
+      <c r="C8">
+        <v>0.11511950043676702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.70725308641975282</v>
+      </c>
+      <c r="C9">
+        <v>0.1336420002566053</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.66723765432098758</v>
+      </c>
+      <c r="E9">
+        <v>0.18738983897446448</v>
       </c>
     </row>
   </sheetData>

--- a/CV Test Results with Graphs.xlsx
+++ b/CV Test Results with Graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nevadaunr-my.sharepoint.com/personal/nalvarez_nevada_unr_edu/Documents/2022 Spring/CS791 - High Performance Computing/Project/cs791/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{021544EA-A753-FF41-9E71-2CC5906398E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3FA75F9-A64C-42C8-BCC5-8233DC83EB53}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="8_{021544EA-A753-FF41-9E71-2CC5906398E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A576012E-8953-43C5-831F-57E347F830A8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4860" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{56CEE24B-4399-7343-9CB2-C211084EA975}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{56CEE24B-4399-7343-9CB2-C211084EA975}"/>
   </bookViews>
   <sheets>
     <sheet name="EFI Unprocessed" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
@@ -79,14 +78,6 @@
   </si>
   <si>
     <t>No Transform</t>
-  </si>
-  <si>
-    <t>Auto Sklearn 2
-180 seconds</t>
-  </si>
-  <si>
-    <t>Auto Sklearn 2
-30 seconds</t>
   </si>
 </sst>
 </file>
@@ -271,7 +262,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -290,7 +281,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F29D-424D-92D7-E5FC0EC65BF6}"/>
+                <c16:uniqueId val="{00000001-CFF1-4B32-BC6B-2730EB38B747}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -387,22 +378,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>7.2637326674540384E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.4573011276067131E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8347933521949568E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3132267725323875E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>2.0082756969283109E-2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.3132267725323875E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.4573011276067131E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.2637326674540384E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>1.5872034064702821E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.8347933521949568E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>8.4245221264138089E-4</c:v>
@@ -417,22 +408,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>7.2637326674540384E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.4573011276067131E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8347933521949568E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3132267725323875E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>2.0082756969283109E-2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.3132267725323875E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.4573011276067131E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.2637326674540384E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>1.5872034064702821E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.8347933521949568E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>8.4245221264138089E-4</c:v>
@@ -460,22 +451,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Decision Tree</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gradient Boosting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Linear SVC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Auto Sklearn</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Auto Sklearn 2</c:v>
@@ -490,22 +481,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.72312757201646038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76449382716049319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98049382716049338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98319341563785945</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.98521810699588441</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98319341563785945</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76449382716049319</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72312757201646038</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.99884773662551407</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98049382716049338</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.99938271604938245</c:v>
@@ -855,6 +846,49 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5581-4F00-8995-B14C07ECC9E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -924,22 +958,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>1.424932586694703E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5172286101142973E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.8852889100771751E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>1.422766119305071E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.3451716859377655E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.5172286101142973E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.424932586694703E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>1.50003663567038E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.8852889100771751E-2</c:v>
+                    <c:v>1.3451716859377655E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>4.4251925880015738E-2</c:v>
@@ -954,22 +988,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>1.424932586694703E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5172286101142973E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.8852889100771751E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>1.422766119305071E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.3451716859377655E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.5172286101142973E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.424932586694703E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>1.50003663567038E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.8852889100771751E-2</c:v>
+                    <c:v>1.3451716859377655E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>4.4251925880015738E-2</c:v>
@@ -997,22 +1031,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gradient Boosting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Linear SVC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Auto Sklearn</c:v>
+                  <c:v>Gradient Boosting</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Auto Sklearn 2</c:v>
@@ -1027,22 +1061,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.80720164609053435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71995061728395016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89115226337448528</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.91419753086419731</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93144855967078144</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71995061728395016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.80720164609053435</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.92693827160493769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89115226337448528</c:v>
+                  <c:v>0.93144855967078144</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.91814814814814782</c:v>
@@ -1080,6 +1114,55 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5581-4F00-8995-B14C07ECC9E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1149,22 +1232,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>7.3988340434748279E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.1435886873857194E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.1971548384393014E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>1.0250114431904853E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8.2966944928564088E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.1435886873857194E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.3988340434748279E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>8.453598072411566E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.1971548384393014E-2</c:v>
+                    <c:v>8.2966944928564088E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>7.1275244632832352E-3</c:v>
@@ -1179,22 +1262,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>7.3988340434748279E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.1435886873857194E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.1971548384393014E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>1.0250114431904853E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8.2966944928564088E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.1435886873857194E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.3988340434748279E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>8.453598072411566E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.1971548384393014E-2</c:v>
+                    <c:v>8.2966944928564088E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>7.1275244632832352E-3</c:v>
@@ -1222,22 +1305,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gradient Boosting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Linear SVC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Auto Sklearn</c:v>
+                  <c:v>Gradient Boosting</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Auto Sklearn 2</c:v>
@@ -1252,22 +1335,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.42211522633744808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46730041152263319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93925925925925879</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.97846913580246864</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98585185185185109</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46730041152263319</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.42211522633744808</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.98414814814814755</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93925925925925879</c:v>
+                  <c:v>0.98585185185185109</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.98757201646090509</c:v>
@@ -1649,7 +1732,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1666,11 +1749,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-DD47-4606-BF9F-43CE2C290463}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1765,22 +1843,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>3.8347933521949568E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2.2941596540221189E-2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>2.3004771146978787E-2</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>1.9747807159709793E-3</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>1.9063902879304139E-3</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>1.5559982865345767E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.8347933521949568E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>8.4245221264138089E-4</c:v>
@@ -1795,22 +1873,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>3.8347933521949568E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2.2941596540221189E-2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>2.3004771146978787E-2</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>1.9747807159709793E-3</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>1.9063902879304139E-3</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>1.5559982865345767E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.8347933521949568E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>8.4245221264138089E-4</c:v>
@@ -1838,22 +1916,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Decision Tree</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Gradient Boosting</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Linear SVC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>MLP</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Auto Sklearn</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Auto Sklearn 2</c:v>
@@ -1868,22 +1946,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.98049382716049338</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.98296296296296237</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.98327572016460862</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.99761316872427963</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.99850205761316835</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.9988559670781888</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98049382716049338</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.99938271604938245</c:v>
@@ -2235,7 +2313,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2252,11 +2330,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-25FC-4731-ADD3-DD6FAA942EA4}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2351,22 +2424,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>5.8852889100771751E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2244783400984058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0895986061411144E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>1.380035121012701E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.3213893279803034E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.2244783400984058E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.0895986061411144E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>1.4517408750698894E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.8852889100771751E-2</c:v>
+                    <c:v>1.3213893279803034E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>4.4251925880015738E-2</c:v>
@@ -2381,22 +2454,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>5.8852889100771751E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2244783400984058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0895986061411144E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>1.380035121012701E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.3213893279803034E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.2244783400984058E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.0895986061411144E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>1.4517408750698894E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.8852889100771751E-2</c:v>
+                    <c:v>1.3213893279803034E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>4.4251925880015738E-2</c:v>
@@ -2424,22 +2497,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gradient Boosting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Linear SVC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Auto Sklearn</c:v>
+                  <c:v>Gradient Boosting</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Auto Sklearn 2</c:v>
@@ -2454,22 +2527,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.89115226337448528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83794238683127509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85703703703703649</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.91540740740740678</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93289711934156339</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83794238683127509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85703703703703649</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9275637860082302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89115226337448528</c:v>
+                  <c:v>0.93289711934156339</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.91814814814814782</c:v>
@@ -2508,7 +2581,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2528,11 +2601,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-25FC-4731-ADD3-DD6FAA942EA4}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2630,22 +2698,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>7.1971548384393014E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0245687567266205E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6992126524916974E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>1.0080609489016099E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8.3686948212332527E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.0245687567266205E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.6992126524916974E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>8.8403188621903068E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.1971548384393014E-2</c:v>
+                    <c:v>8.3686948212332527E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>7.1275244632832352E-3</c:v>
@@ -2660,22 +2728,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>7.1971548384393014E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0245687567266205E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6992126524916974E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>1.0080609489016099E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8.3686948212332527E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.0245687567266205E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.6992126524916974E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>8.8403188621903068E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.1971548384393014E-2</c:v>
+                    <c:v>8.3686948212332527E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>7.1275244632832352E-3</c:v>
@@ -2703,22 +2771,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Auto Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gradient Boosting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Linear SVC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Auto Sklearn</c:v>
+                  <c:v>Gradient Boosting</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Auto Sklearn 2</c:v>
@@ -2733,22 +2801,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.93925925925925879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9469547325102875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95644444444444399</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.97854320987654275</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98579423868312688</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9469547325102875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95644444444444399</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9839012345679008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93925925925925879</c:v>
+                  <c:v>0.98579423868312688</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.98757201646090509</c:v>
@@ -3246,25 +3314,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>0.2261862309199337</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21336521660949578</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>0.24963003596210828</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="3">
                     <c:v>0.25045067985638619</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.2261862309199337</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.21336521660949578</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.17743902049903454</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.10820892138627498</c:v>
+                    <c:v>0.25856056395533389</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.0527529336300396E-2</c:v>
+                    <c:v>0.17680988917171273</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3276,25 +3344,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>0.2261862309199337</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21336521660949578</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>0.24963003596210828</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="3">
                     <c:v>0.25045067985638619</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.2261862309199337</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.21336521660949578</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.17743902049903454</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.10820892138627498</c:v>
+                    <c:v>0.25856056395533389</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.0527529336300396E-2</c:v>
+                    <c:v>0.17680988917171273</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3319,16 +3387,16 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Decision Tree</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Gradient Boosting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Linear SVC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Random Forest</c:v>
@@ -3349,25 +3417,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.48604320987654281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58232407407407372</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.703666666666666</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.82307818930041066</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48604320987654281</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58232407407407372</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.84833024691357961</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78935185185185142</c:v>
+                  <c:v>0.85968621399176914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83579218106995867</c:v>
+                  <c:v>0.87246141975308578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,6 +3783,25 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -3735,30 +3822,6 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-8AAD-4F4C-85FB-07500965E76C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D440-C142-B0CF-728B80BC266F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3826,66 +3889,60 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1to1 MMS + Transform'!$C$2:$C$9</c:f>
+                <c:f>'1to1 MMS + Transform'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>0.14772188739719461</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14991999072797185</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14899457694734936</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11093113143437307</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.11137552477147016</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.11093113143437307</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.14772188739719461</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.14991999072797185</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
+                    <c:v>0.11475687900910791</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>9.595926431789388E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.11720329140640605</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.11511950043676702</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.1336420002566053</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1to1 MMS + Transform'!$C$2:$C$9</c:f>
+                <c:f>'1to1 MMS + Transform'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>0.14772188739719461</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14991999072797185</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14899457694734936</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11093113143437307</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.11137552477147016</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.11093113143437307</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.14772188739719461</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.14991999072797185</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
+                    <c:v>0.11475687900910791</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>9.595926431789388E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.11720329140640605</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.11511950043676702</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.1336420002566053</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3906,67 +3963,59 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'1to1 MMS + Transform'!$A$2:$A$9</c:f>
+              <c:f>'1to1 MMS + Transform'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Sklearn 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gradient Boosting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Linear SVC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Auto Sklearn</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Auto Sklearn 2
-180 seconds</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Auto Sklearn 2
-30 seconds</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1to1 MMS + Transform'!$B$2:$B$9</c:f>
+              <c:f>'1to1 MMS + Transform'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.65138683127571995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65925308641975267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70076646090534966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71486316872427991</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.73483847736625463</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71486316872427991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65138683127571995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65925308641975267</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.73609567901234574</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.76258127572016454</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7378034979423862</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73325617283950584</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70725308641975282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4002,6 +4051,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -4025,33 +4096,6 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8AAD-4F4C-85FB-07500965E76C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D440-C142-B0CF-728B80BC266F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4119,60 +4163,60 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1to1 MMS + Transform'!$E$2:$E$9</c:f>
+                <c:f>'1to1 MMS + Transform'!$E$2:$E$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>0.24580554537397836</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21352443964859302</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1780902695453857</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2013118116538479</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.22856232552601213</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.2013118116538479</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.24580554537397836</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.21352443964859302</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
+                    <c:v>0.18479451187554916</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>0.18376113209540867</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.18907877524410602</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.18738983897446448</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1to1 MMS + Transform'!$E$2:$E$9</c:f>
+                <c:f>'1to1 MMS + Transform'!$E$2:$E$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
+                    <c:v>0.24580554537397836</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21352443964859302</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1780902695453857</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2013118116538479</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.22856232552601213</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.2013118116538479</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.24580554537397836</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.21352443964859302</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
+                    <c:v>0.18479451187554916</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>0.18376113209540867</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.18907877524410602</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.18738983897446448</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4193,64 +4237,59 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'1to1 MMS + Transform'!$A$2:$A$9</c:f>
+              <c:f>'1to1 MMS + Transform'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Linear SVC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Sklearn 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gradient Boosting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Linear SVC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Auto Sklearn</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Auto Sklearn 2
-180 seconds</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Auto Sklearn 2
-30 seconds</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1to1 MMS + Transform'!$D$2:$D$9</c:f>
+              <c:f>'1to1 MMS + Transform'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.4812757201646079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56361008230452603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67398919753086384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64482716049382716</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.58293724279835313</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64482716049382716</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4812757201646079</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56361008230452603</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.64948302469135788</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.67957613168724273</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64374485596707776</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66723765432098758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4760,10 +4799,7 @@
                     <c:v>8.450518006162322E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.10820892138627498</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7.0527529336300396E-2</c:v>
+                    <c:v>0.10035863136563357</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4790,10 +4826,7 @@
                     <c:v>8.450518006162322E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.10820892138627498</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7.0527529336300396E-2</c:v>
+                    <c:v>0.10035863136563357</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4863,10 +4896,7 @@
                   <c:v>0.84477469135802408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78935185185185142</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.83579218106995867</c:v>
+                  <c:v>0.85968621399176925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5238,7 +5268,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -5255,11 +5285,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-02F0-554B-A635-35C0CED7DFD3}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5325,10 +5350,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1to9 MMS + Transform'!$C$2:$C$9</c:f>
+                <c:f>'1to9 MMS + Transform'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>4.0832610311007253E-2</c:v>
                   </c:pt>
@@ -5345,23 +5370,17 @@
                     <c:v>4.52639597856766E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.11720329140640605</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.11511950043676702</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.1336420002566053</c:v>
+                    <c:v>5.8341682036599472E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1to9 MMS + Transform'!$C$2:$C$9</c:f>
+                <c:f>'1to9 MMS + Transform'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>4.0832610311007253E-2</c:v>
                   </c:pt>
@@ -5378,13 +5397,7 @@
                     <c:v>4.52639597856766E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.11720329140640605</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.11511950043676702</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.1336420002566053</c:v>
+                    <c:v>5.8341682036599472E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5405,9 +5418,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'1to9 MMS + Transform'!$A$2:$A$9</c:f>
+              <c:f>'1to9 MMS + Transform'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Decision Tree</c:v>
                 </c:pt>
@@ -5427,22 +5440,17 @@
                   <c:v>Auto Sklearn</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Auto Sklearn 2
-180 seconds</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Auto Sklearn 2
-30 seconds</c:v>
+                  <c:v>Auto Sklearn 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1to9 MMS + Transform'!$B$2:$B$9</c:f>
+              <c:f>'1to9 MMS + Transform'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.72169650205761271</c:v>
                 </c:pt>
@@ -5459,13 +5467,7 @@
                   <c:v>0.76200925925925878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7378034979423862</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73325617283950584</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70725308641975282</c:v>
+                  <c:v>0.73701131687242738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5528,7 +5530,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -5548,11 +5550,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-02F0-554B-A635-35C0CED7DFD3}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5618,10 +5615,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'1to9 MMS + Transform'!$E$2:$E$9</c:f>
+                <c:f>'1to9 MMS + Transform'!$E$2:$E$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>9.1592120598563087E-2</c:v>
                   </c:pt>
@@ -5638,20 +5635,17 @@
                     <c:v>5.1031793624409343E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.18907877524410602</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.18738983897446448</c:v>
+                    <c:v>8.7864824444841755E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'1to9 MMS + Transform'!$E$2:$E$9</c:f>
+                <c:f>'1to9 MMS + Transform'!$E$2:$E$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>9.1592120598563087E-2</c:v>
                   </c:pt>
@@ -5668,10 +5662,7 @@
                     <c:v>5.1031793624409343E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.18907877524410602</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.18738983897446448</c:v>
+                    <c:v>8.7864824444841755E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5692,9 +5683,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'1to9 MMS + Transform'!$A$2:$A$9</c:f>
+              <c:f>'1to9 MMS + Transform'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Decision Tree</c:v>
                 </c:pt>
@@ -5714,22 +5705,17 @@
                   <c:v>Auto Sklearn</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Auto Sklearn 2
-180 seconds</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Auto Sklearn 2
-30 seconds</c:v>
+                  <c:v>Auto Sklearn 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1to9 MMS + Transform'!$D$2:$D$9</c:f>
+              <c:f>'1to9 MMS + Transform'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.57545576131687193</c:v>
                 </c:pt>
@@ -5746,10 +5732,7 @@
                   <c:v>0.68075308641975263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64374485596707776</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66723765432098758</c:v>
+                  <c:v>0.64461934156378542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6148,7 +6131,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -6165,11 +6148,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9E64-7D48-91BC-3F5D1453B03C}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6235,10 +6213,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'EC MMS'!$C$2:$C$9</c:f>
+                <c:f>'EC MMS'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>8.4976961748339297E-2</c:v>
                   </c:pt>
@@ -6256,22 +6234,16 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.11720329140640605</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.11511950043676702</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.1336420002566053</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'EC MMS'!$C$2:$C$9</c:f>
+                <c:f>'EC MMS'!$C$2:$C$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>8.4976961748339297E-2</c:v>
                   </c:pt>
@@ -6289,12 +6261,6 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.11720329140640605</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.11511950043676702</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.1336420002566053</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6315,9 +6281,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'EC MMS'!$A$2:$A$9</c:f>
+              <c:f>'EC MMS'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Decision Tree</c:v>
                 </c:pt>
@@ -6337,22 +6303,17 @@
                   <c:v>Auto Sklearn</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Auto Sklearn 2
-180 seconds</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Auto Sklearn 2
-30 seconds</c:v>
+                  <c:v>Auto Sklearn 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EC MMS'!$B$2:$B$9</c:f>
+              <c:f>'EC MMS'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.74201100544783327</c:v>
                 </c:pt>
@@ -6370,12 +6331,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.7378034979423862</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73325617283950584</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70725308641975282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6438,7 +6393,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -6458,11 +6413,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-9E64-7D48-91BC-3F5D1453B03C}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6528,10 +6478,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'EC MMS'!$E$2:$E$9</c:f>
+                <c:f>'EC MMS'!$E$2:$E$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>0.13300821363504334</c:v>
                   </c:pt>
@@ -6549,19 +6499,16 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.18907877524410602</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.18738983897446448</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'EC MMS'!$E$2:$E$9</c:f>
+                <c:f>'EC MMS'!$E$2:$E$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>0.13300821363504334</c:v>
                   </c:pt>
@@ -6579,9 +6526,6 @@
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.18907877524410602</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.18738983897446448</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6602,9 +6546,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'EC MMS'!$A$2:$A$9</c:f>
+              <c:f>'EC MMS'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Decision Tree</c:v>
                 </c:pt>
@@ -6624,22 +6568,17 @@
                   <c:v>Auto Sklearn</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Auto Sklearn 2
-180 seconds</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Auto Sklearn 2
-30 seconds</c:v>
+                  <c:v>Auto Sklearn 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EC MMS'!$D$2:$D$9</c:f>
+              <c:f>'EC MMS'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.54563365032316435</c:v>
                 </c:pt>
@@ -6657,9 +6596,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.64374485596707776</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66723765432098758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12132,13 +12068,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>377825</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12175,13 +12111,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>377825</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12511,7 +12447,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12533,68 +12469,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>0.98521810699588441</v>
+        <v>0.72312757201646038</v>
       </c>
       <c r="C2">
-        <v>2.0082756969283109E-2</v>
+        <v>7.2637326674540384E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>0.98319341563785945</v>
+        <v>0.76449382716049319</v>
       </c>
       <c r="C3">
-        <v>2.3132267725323875E-2</v>
+        <v>8.4573011276067131E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.76449382716049319</v>
+        <v>0.98049382716049338</v>
       </c>
       <c r="C4">
-        <v>8.4573011276067131E-2</v>
+        <v>3.8347933521949568E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0.72312757201646038</v>
+        <v>0.98319341563785945</v>
       </c>
       <c r="C5">
-        <v>7.2637326674540384E-2</v>
+        <v>2.3132267725323875E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>0.99884773662551407</v>
+        <v>0.98521810699588441</v>
       </c>
       <c r="C6">
-        <v>1.5872034064702821E-3</v>
+        <v>2.0082756969283109E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.98049382716049338</v>
+        <v>0.99884773662551407</v>
       </c>
       <c r="C7">
-        <v>3.8347933521949568E-2</v>
+        <v>1.5872034064702821E-3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12609,6 +12545,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="B1:B8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12617,980 +12556,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EDDCE1-6D78-45B1-9F99-1BFF49867431}">
   <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-    <col min="4" max="4" width="11" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.91419753086419731</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.422766119305071E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.97846913580246864</v>
-      </c>
-      <c r="E2">
-        <v>1.0250114431904853E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.93144855967078144</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.3451716859377655E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.98585185185185109</v>
-      </c>
-      <c r="E3">
-        <v>8.2966944928564088E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.71995061728395016</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.5172286101142973E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.46730041152263319</v>
-      </c>
-      <c r="E4">
-        <v>8.1435886873857194E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.80720164609053435</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.424932586694703E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.42211522633744808</v>
-      </c>
-      <c r="E5">
-        <v>7.3988340434748279E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.92693827160493769</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.50003663567038E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.98414814814814755</v>
-      </c>
-      <c r="E6">
-        <v>8.453598072411566E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.89115226337448528</v>
-      </c>
-      <c r="C7">
-        <v>5.8852889100771751E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.93925925925925879</v>
-      </c>
-      <c r="E7">
-        <v>7.1971548384393014E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.91814814814814782</v>
-      </c>
-      <c r="C8">
-        <v>4.4251925880015738E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.98757201646090509</v>
-      </c>
-      <c r="E8">
-        <v>7.1275244632832352E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A69FDC-3718-BD45-AC60-F457623B1FF2}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.98296296296296237</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.2941596540221189E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.98327572016460862</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.3004771146978787E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.99761316872427963</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.9747807159709793E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.99850205761316835</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.9063902879304139E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.9988559670781888</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.5559982865345767E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.98049382716049338</v>
-      </c>
-      <c r="C7">
-        <v>3.8347933521949568E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.99938271604938245</v>
-      </c>
-      <c r="C8">
-        <v>8.4245221264138089E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2185EBE-B8E3-49FB-8489-38973129709D}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-    <col min="4" max="4" width="11" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.91540740740740678</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.380035121012701E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.97854320987654275</v>
-      </c>
-      <c r="E2">
-        <v>1.0080609489016099E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.93289711934156339</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.3213893279803034E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.98579423868312688</v>
-      </c>
-      <c r="E3">
-        <v>8.3686948212332527E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.83794238683127509</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.2244783400984058E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.9469547325102875</v>
-      </c>
-      <c r="E4">
-        <v>2.0245687567266205E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.85703703703703649</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3.0895986061411144E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.95644444444444399</v>
-      </c>
-      <c r="E5">
-        <v>1.6992126524916974E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.9275637860082302</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4517408750698894E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.9839012345679008</v>
-      </c>
-      <c r="E6">
-        <v>8.8403188621903068E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.89115226337448528</v>
-      </c>
-      <c r="C7">
-        <v>5.8852889100771751E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.93925925925925879</v>
-      </c>
-      <c r="E7">
-        <v>7.1971548384393014E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.91814814814814782</v>
-      </c>
-      <c r="C8">
-        <v>4.4251925880015738E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.98757201646090509</v>
-      </c>
-      <c r="E8">
-        <v>7.1275244632832352E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887F8A2D-9F09-475A-98E6-CCD14A040B8B}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.703666666666666</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.24963003596210828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.82307818930041066</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.25045067985638619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.48604320987654281</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2261862309199337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.58232407407407372</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.21336521660949578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.84833024691357961</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.17743902049903454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.78935185185185142</v>
-      </c>
-      <c r="C7">
-        <v>0.10820892138627498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.83579218106995867</v>
-      </c>
-      <c r="C8">
-        <v>7.0527529336300396E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F56E7F-4A5A-4BFB-865B-F0334D2CDBCA}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-    <col min="4" max="4" width="11" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.73483847736625463</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.11137552477147016</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.58293724279835313</v>
-      </c>
-      <c r="E2">
-        <v>0.22856232552601213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.71486316872427991</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.11093113143437307</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.64482716049382716</v>
-      </c>
-      <c r="E3">
-        <v>0.2013118116538479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.65138683127571995</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.14772188739719461</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.4812757201646079</v>
-      </c>
-      <c r="E4">
-        <v>0.24580554537397836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.65925308641975267</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.14991999072797185</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.56361008230452603</v>
-      </c>
-      <c r="E5">
-        <v>0.21352443964859302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.76258127572016454</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.595926431789388E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.67957613168724273</v>
-      </c>
-      <c r="E6">
-        <v>0.18376113209540867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.7378034979423862</v>
-      </c>
-      <c r="C7">
-        <v>0.11720329140640605</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.64374485596707776</v>
-      </c>
-      <c r="E7">
-        <v>0.18907877524410602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.73325617283950584</v>
-      </c>
-      <c r="C8">
-        <v>0.11511950043676702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.70725308641975282</v>
-      </c>
-      <c r="C9">
-        <v>0.1336420002566053</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.66723765432098758</v>
-      </c>
-      <c r="E9">
-        <v>0.18738983897446448</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3C4C50-ACF6-4137-A0A6-F3A3BF14AD85}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.68654629629629571</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1137703481584893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.82559773662551394</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8.0172318024904946E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.48604320987654293</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.10766588718448433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.59685905349794222</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.1137916020938733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.84477469135802408</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8.450518006162322E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.78935185185185142</v>
-      </c>
-      <c r="C7">
-        <v>0.10820892138627498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.83579218106995867</v>
-      </c>
-      <c r="C8">
-        <v>7.0527529336300396E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADACA25-E1F8-5849-8FBD-555F25E42E50}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-    <col min="4" max="4" width="11" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.72169650205761271</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.0832610311007253E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.57545576131687193</v>
-      </c>
-      <c r="E2">
-        <v>9.1592120598563087E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.71541975308641936</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5.7933858507708776E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.64962962962962945</v>
-      </c>
-      <c r="E3">
-        <v>6.5461879578462001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.65138580246913536</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7.751281010305007E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.48127469135802431</v>
-      </c>
-      <c r="E4">
-        <v>9.0957949277721051E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.65874588477366192</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.3284851408713287E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.55886419753086369</v>
-      </c>
-      <c r="E5">
-        <v>7.3486024631807964E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.76200925925925878</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4.52639597856766E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.68075308641975263</v>
-      </c>
-      <c r="E6">
-        <v>5.1031793624409343E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.7378034979423862</v>
-      </c>
-      <c r="C7">
-        <v>0.11720329140640605</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.64374485596707776</v>
-      </c>
-      <c r="E7">
-        <v>0.18907877524410602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.73325617283950584</v>
-      </c>
-      <c r="C8">
-        <v>0.11511950043676702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.70725308641975282</v>
-      </c>
-      <c r="C9">
-        <v>0.1336420002566053</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.66723765432098758</v>
-      </c>
-      <c r="E9">
-        <v>0.18738983897446448</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC1BCE0-29EC-3D42-B875-E87A70CA5B15}">
-  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -13622,19 +12587,823 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.80720164609053435</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.424932586694703E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.42211522633744808</v>
+      </c>
+      <c r="E2">
+        <v>7.3988340434748279E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.71995061728395016</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.5172286101142973E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.46730041152263319</v>
+      </c>
+      <c r="E3">
+        <v>8.1435886873857194E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.89115226337448528</v>
+      </c>
+      <c r="C4">
+        <v>5.8852889100771751E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.93925925925925879</v>
+      </c>
+      <c r="E4">
+        <v>7.1971548384393014E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="3">
+        <v>0.91419753086419731</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.422766119305071E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.97846913580246864</v>
+      </c>
+      <c r="E5">
+        <v>1.0250114431904853E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.92693827160493769</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.50003663567038E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98414814814814755</v>
+      </c>
+      <c r="E6">
+        <v>8.453598072411566E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.93144855967078144</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.3451716859377655E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98585185185185109</v>
+      </c>
+      <c r="E7">
+        <v>8.2966944928564088E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.91814814814814782</v>
+      </c>
+      <c r="C8">
+        <v>4.4251925880015738E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98757201646090509</v>
+      </c>
+      <c r="E8">
+        <v>7.1275244632832352E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="D1:D8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A69FDC-3718-BD45-AC60-F457623B1FF2}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.98049382716049338</v>
+      </c>
+      <c r="C2">
+        <v>3.8347933521949568E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.98296296296296237</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.2941596540221189E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.98327572016460862</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.3004771146978787E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.99761316872427963</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.9747807159709793E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.99850205761316835</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.9063902879304139E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.9988559670781888</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.5559982865345767E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.99938271604938245</v>
+      </c>
+      <c r="C8">
+        <v>8.4245221264138089E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="B1:B8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2185EBE-B8E3-49FB-8489-38973129709D}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="4" max="4" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.89115226337448528</v>
+      </c>
+      <c r="C2">
+        <v>5.8852889100771751E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.93925925925925879</v>
+      </c>
+      <c r="E2">
+        <v>7.1971548384393014E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.83794238683127509</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.2244783400984058E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.9469547325102875</v>
+      </c>
+      <c r="E3">
+        <v>2.0245687567266205E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.85703703703703649</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.0895986061411144E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.95644444444444399</v>
+      </c>
+      <c r="E4">
+        <v>1.6992126524916974E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.91540740740740678</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.380035121012701E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.97854320987654275</v>
+      </c>
+      <c r="E5">
+        <v>1.0080609489016099E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.9275637860082302</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4517408750698894E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9839012345679008</v>
+      </c>
+      <c r="E6">
+        <v>8.8403188621903068E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.93289711934156339</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.3213893279803034E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98579423868312688</v>
+      </c>
+      <c r="E7">
+        <v>8.3686948212332527E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.91814814814814782</v>
+      </c>
+      <c r="C8">
+        <v>4.4251925880015738E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98757201646090509</v>
+      </c>
+      <c r="E8">
+        <v>7.1275244632832352E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="D1:D8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887F8A2D-9F09-475A-98E6-CCD14A040B8B}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" s="3">
-        <v>0.74201100544783327</v>
+        <v>0.48604320987654281</v>
       </c>
       <c r="C2" s="2">
-        <v>8.4976961748339297E-2</v>
+        <v>0.2261862309199337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.58232407407407372</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.21336521660949578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.703666666666666</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.24963003596210828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.82307818930041066</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.25045067985638619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.84833024691357961</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.17743902049903454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.85968621399176914</v>
+      </c>
+      <c r="C7">
+        <v>0.25856056395533389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.87246141975308578</v>
+      </c>
+      <c r="C8">
+        <v>0.17680988917171273</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="B1:B8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F56E7F-4A5A-4BFB-865B-F0334D2CDBCA}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="4" max="4" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.65138683127571995</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.14772188739719461</v>
       </c>
       <c r="D2" s="1">
-        <v>0.54563365032316435</v>
+        <v>0.4812757201646079</v>
       </c>
       <c r="E2">
-        <v>0.13300821363504334</v>
+        <v>0.24580554537397836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.65925308641975267</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.14991999072797185</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.56361008230452603</v>
+      </c>
+      <c r="E3">
+        <v>0.21352443964859302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.70076646090534966</v>
+      </c>
+      <c r="C4">
+        <v>0.14899457694734936</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.67398919753086384</v>
+      </c>
+      <c r="E4">
+        <v>0.1780902695453857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.71486316872427991</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.11093113143437307</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.64482716049382716</v>
+      </c>
+      <c r="E5">
+        <v>0.2013118116538479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.73483847736625463</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.11137552477147016</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.58293724279835313</v>
+      </c>
+      <c r="E6">
+        <v>0.22856232552601213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.73609567901234574</v>
+      </c>
+      <c r="C7">
+        <v>0.11475687900910791</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.64948302469135788</v>
+      </c>
+      <c r="E7">
+        <v>0.18479451187554916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.76258127572016454</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.595926431789388E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.67957613168724273</v>
+      </c>
+      <c r="E8">
+        <v>0.18376113209540867</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="B1:B8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3C4C50-ACF6-4137-A0A6-F3A3BF14AD85}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.68654629629629571</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1137703481584893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.82559773662551394</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.0172318024904946E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.48604320987654293</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.10766588718448433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.59685905349794222</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1137916020938733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.84477469135802408</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.450518006162322E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.85968621399176925</v>
+      </c>
+      <c r="C7">
+        <v>0.10035863136563357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADACA25-E1F8-5849-8FBD-555F25E42E50}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="4" max="4" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.72169650205761271</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.0832610311007253E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.57545576131687193</v>
+      </c>
+      <c r="E2">
+        <v>9.1592120598563087E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13642,16 +13411,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>0.77736844921987502</v>
+        <v>0.71541975308641936</v>
       </c>
       <c r="C3" s="2">
-        <v>1.2366309698198526E-2</v>
+        <v>5.7933858507708776E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.52201683751183536</v>
+        <v>0.64962962962962945</v>
       </c>
       <c r="E3">
-        <v>3.1106888098216032E-2</v>
+        <v>6.5461879578462001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13659,16 +13428,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0.78291246414995896</v>
+        <v>0.65138580246913536</v>
       </c>
       <c r="C4" s="2">
-        <v>5.5606054368558977E-2</v>
+        <v>7.751281010305007E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.27470050636038001</v>
+        <v>0.48127469135802431</v>
       </c>
       <c r="E4">
-        <v>0.10803383969371397</v>
+        <v>9.0957949277721051E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13676,16 +13445,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.78710674735498698</v>
+        <v>0.65874588477366192</v>
       </c>
       <c r="C5" s="2">
-        <v>1.3893224576926764E-2</v>
+        <v>9.3284851408713287E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.28987651119070101</v>
+        <v>0.55886419753086369</v>
       </c>
       <c r="E5">
-        <v>6.1477864604541979E-2</v>
+        <v>7.3486024631807964E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13693,16 +13462,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0.80903523938907385</v>
+        <v>0.76200925925925878</v>
       </c>
       <c r="C6" s="2">
-        <v>3.1517816059811216E-2</v>
+        <v>4.52639597856766E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.48662630878377405</v>
+        <v>0.68075308641975263</v>
       </c>
       <c r="E6">
-        <v>0.11396321579117864</v>
+        <v>5.1031793624409343E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13710,6 +13479,151 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
+        <v>0.73701131687242738</v>
+      </c>
+      <c r="C7">
+        <v>5.8341682036599472E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.64461934156378542</v>
+      </c>
+      <c r="E7">
+        <v>8.7864824444841755E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC1BCE0-29EC-3D42-B875-E87A70CA5B15}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="4" max="4" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.74201100544783327</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.4976961748339297E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.54563365032316435</v>
+      </c>
+      <c r="E2">
+        <v>0.13300821363504334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.77736844921987502</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.2366309698198526E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.52201683751183536</v>
+      </c>
+      <c r="E3">
+        <v>3.1106888098216032E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.78291246414995896</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.5606054368558977E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.27470050636038001</v>
+      </c>
+      <c r="E4">
+        <v>0.10803383969371397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.78710674735498698</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.3893224576926764E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.28987651119070101</v>
+      </c>
+      <c r="E5">
+        <v>6.1477864604541979E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.80903523938907385</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.1517816059811216E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.48662630878377405</v>
+      </c>
+      <c r="E6">
+        <v>0.11396321579117864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.7378034979423862</v>
       </c>
       <c r="C7">
@@ -13722,32 +13636,9 @@
         <v>0.18907877524410602</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.73325617283950584</v>
-      </c>
-      <c r="C8">
-        <v>0.11511950043676702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.70725308641975282</v>
-      </c>
-      <c r="C9">
-        <v>0.1336420002566053</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.66723765432098758</v>
-      </c>
-      <c r="E9">
-        <v>0.18738983897446448</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
